--- a/data/trans_orig/P6604-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>91023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76119</v>
+        <v>75037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108887</v>
+        <v>109255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2441008107427366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2041297084663552</v>
+        <v>0.2012281417452092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2920053655520426</v>
+        <v>0.2929938029786007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>51782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40488</v>
+        <v>40922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64454</v>
+        <v>65384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3435484685332982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2686193613065426</v>
+        <v>0.2715006946538601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4276201867371658</v>
+        <v>0.4337926843817801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>139</v>
@@ -786,19 +786,19 @@
         <v>142805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122249</v>
+        <v>122946</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165384</v>
+        <v>164549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2727273534157382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2334688059606339</v>
+        <v>0.2347991944767662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3158466529062843</v>
+        <v>0.3142521705384298</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>81111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65962</v>
+        <v>64009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99718</v>
+        <v>97803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.217518532844405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1768927999125109</v>
+        <v>0.1716546449717462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2674184275211353</v>
+        <v>0.2622821496104251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -836,19 +836,19 @@
         <v>31700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22097</v>
+        <v>22156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42807</v>
+        <v>43067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2103118912205691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1466000377108309</v>
+        <v>0.1469924394382466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2840054105703911</v>
+        <v>0.2857269953192583</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -857,19 +857,19 @@
         <v>112811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94694</v>
+        <v>94671</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134257</v>
+        <v>132819</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.215444062328385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1808445286034858</v>
+        <v>0.1808016181999152</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2564009154519064</v>
+        <v>0.2536555522529371</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>104465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88163</v>
+        <v>86031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124165</v>
+        <v>121735</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2801486075447878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2364307429807607</v>
+        <v>0.230711510912685</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3329767881960694</v>
+        <v>0.3264620214224123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -907,19 +907,19 @@
         <v>34214</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24690</v>
+        <v>25808</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45544</v>
+        <v>45387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2269942369094439</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1638082603593097</v>
+        <v>0.1712257441728123</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3021647584776006</v>
+        <v>0.3011196275745172</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>133</v>
@@ -928,19 +928,19 @@
         <v>138680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118821</v>
+        <v>117233</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159294</v>
+        <v>157356</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2648478363345318</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2269220639609591</v>
+        <v>0.2238886781206969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3042167325863374</v>
+        <v>0.3005155601174793</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>96293</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78913</v>
+        <v>79823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115161</v>
+        <v>113677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2582320488680706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2116249771017492</v>
+        <v>0.2140645612828301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3088300657232657</v>
+        <v>0.3048505774873528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -978,19 +978,19 @@
         <v>33031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23148</v>
+        <v>23217</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44162</v>
+        <v>44124</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2191454033366888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1535736884436279</v>
+        <v>0.1540354220436222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2929926533079488</v>
+        <v>0.2927412816454224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -999,19 +999,19 @@
         <v>129324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109261</v>
+        <v>109291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152004</v>
+        <v>150429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.246980747921345</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2086652753825725</v>
+        <v>0.2087217406873544</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2902936933277394</v>
+        <v>0.2872870197959547</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>314149</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>283189</v>
+        <v>281282</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>348413</v>
+        <v>342270</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.280070758893024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2524688878969719</v>
+        <v>0.2507688672158714</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.310617596676493</v>
+        <v>0.3051411295528118</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>255</v>
@@ -1124,19 +1124,19 @@
         <v>266605</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>242258</v>
+        <v>242185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>290967</v>
+        <v>288259</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4597866701024949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4177985522262641</v>
+        <v>0.4176730526161807</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5018021920942488</v>
+        <v>0.4971322962433712</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>553</v>
@@ -1145,19 +1145,19 @@
         <v>580753</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>542471</v>
+        <v>539402</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>620532</v>
+        <v>619769</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3413142845524232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3188155406166225</v>
+        <v>0.3170114028290605</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3646922581500467</v>
+        <v>0.3642438700312365</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>291925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262566</v>
+        <v>262170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323288</v>
+        <v>322393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.260257168417016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2340834466068039</v>
+        <v>0.233730270213386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.288218586014662</v>
+        <v>0.2874202294133216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1195,19 +1195,19 @@
         <v>152815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129341</v>
+        <v>132723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172439</v>
+        <v>177048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2635452903711226</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2230616170319074</v>
+        <v>0.2288942755956171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2973891235405096</v>
+        <v>0.3053379754511025</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>428</v>
@@ -1216,19 +1216,19 @@
         <v>444740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>407692</v>
+        <v>403789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>477366</v>
+        <v>479054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.261377693471878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.239604348582946</v>
+        <v>0.2373109022025589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2805525001398962</v>
+        <v>0.2815445014431258</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>297909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266340</v>
+        <v>268851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>327006</v>
+        <v>328331</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2655920318412928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2374475113352207</v>
+        <v>0.2396861378886477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2915330635824203</v>
+        <v>0.2927137273943889</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -1266,19 +1266,19 @@
         <v>100443</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81433</v>
+        <v>83712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116277</v>
+        <v>120036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1732237341168816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1404387242276138</v>
+        <v>0.1443694875368199</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2005322015501701</v>
+        <v>0.2070139240661115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>386</v>
@@ -1287,19 +1287,19 @@
         <v>398351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>363973</v>
+        <v>363242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>431400</v>
+        <v>434878</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2341147954979484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2139102041387316</v>
+        <v>0.2134806012368068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2535375784887763</v>
+        <v>0.2555818950375749</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>217695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>192102</v>
+        <v>192924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>249096</v>
+        <v>246464</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1940800408486671</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.171262874844581</v>
+        <v>0.1719959466232135</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2220742376259217</v>
+        <v>0.2197278495973309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1337,19 +1337,19 @@
         <v>59982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46922</v>
+        <v>46035</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79562</v>
+        <v>75116</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1034443054095009</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08092166793747628</v>
+        <v>0.07939143747412945</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.137212241543981</v>
+        <v>0.1295453739550563</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>261</v>
@@ -1358,19 +1358,19 @@
         <v>277677</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>248537</v>
+        <v>244783</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>309971</v>
+        <v>308291</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1631932264777503</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1460674084073784</v>
+        <v>0.1438612505458923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1821728599559236</v>
+        <v>0.1811853481970209</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>234264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>214512</v>
+        <v>212890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>254283</v>
+        <v>254895</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5802667677777882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5313432477764308</v>
+        <v>0.5273238691754385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6298539672800344</v>
+        <v>0.6313716604029196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>188</v>
@@ -1483,19 +1483,19 @@
         <v>194669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178289</v>
+        <v>180003</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210824</v>
+        <v>211382</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6708620785329968</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6144148657799021</v>
+        <v>0.6203223124865287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7265343657127628</v>
+        <v>0.7284591961347379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>414</v>
@@ -1504,19 +1504,19 @@
         <v>428932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>399912</v>
+        <v>406158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>453619</v>
+        <v>455675</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6181524324050042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5763299884401148</v>
+        <v>0.5853307691288209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6537294758874211</v>
+        <v>0.6566928599530248</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>104754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87733</v>
+        <v>87695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124014</v>
+        <v>124301</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2594733741948361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2173128679329184</v>
+        <v>0.2172201703414033</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3071793090787049</v>
+        <v>0.3078911554423776</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>58</v>
@@ -1554,19 +1554,19 @@
         <v>61627</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>48228</v>
+        <v>49205</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76506</v>
+        <v>77497</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2123784685210761</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1662032377753062</v>
+        <v>0.1695705777235291</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2636540355100711</v>
+        <v>0.2670665282622158</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>160</v>
@@ -1575,19 +1575,19 @@
         <v>166381</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>143698</v>
+        <v>145228</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>188932</v>
+        <v>188093</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2397789574845997</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2070893389041895</v>
+        <v>0.2092949333820176</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2722776296205725</v>
+        <v>0.2710683499015378</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>40033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29428</v>
+        <v>28996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54314</v>
+        <v>54867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09916080125035306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07289243357032578</v>
+        <v>0.07182316300907977</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1345345958044599</v>
+        <v>0.1359041438244754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1625,19 +1625,19 @@
         <v>21521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13780</v>
+        <v>13749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31240</v>
+        <v>30699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07416642519509137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04748910956032984</v>
+        <v>0.04738204537568729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1076589234803616</v>
+        <v>0.1057954364662744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1646,19 +1646,19 @@
         <v>61554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47480</v>
+        <v>46699</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76873</v>
+        <v>78449</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08870851027742629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06842601354979028</v>
+        <v>0.06729964754336261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1107848256049381</v>
+        <v>0.1130556409467359</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>24667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15762</v>
+        <v>15553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36528</v>
+        <v>37500</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06109905677702263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03904148638178622</v>
+        <v>0.03852573403919006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09048040252250104</v>
+        <v>0.09288745180713831</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1696,19 +1696,19 @@
         <v>12360</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6309</v>
+        <v>6340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21547</v>
+        <v>21561</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0425930277508357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02174165351425586</v>
+        <v>0.02184790130508797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07425439174604333</v>
+        <v>0.07430234964070269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1717,19 +1717,19 @@
         <v>37026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26354</v>
+        <v>26207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51999</v>
+        <v>52348</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05336009983296983</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0379798017864658</v>
+        <v>0.03776794893065533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07493729490507636</v>
+        <v>0.07544062420109118</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>639436</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>598392</v>
+        <v>594582</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>683424</v>
+        <v>682163</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.336848977863016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3152271995160371</v>
+        <v>0.3132202153108283</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3600209881651917</v>
+        <v>0.3593569101298614</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>491</v>
@@ -1842,19 +1842,19 @@
         <v>513055</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>481592</v>
+        <v>479783</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>544273</v>
+        <v>547403</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5026267812124859</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4718039625783237</v>
+        <v>0.4700308011046605</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5332102459820598</v>
+        <v>0.5362765945574109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1106</v>
@@ -1863,19 +1863,19 @@
         <v>1152491</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1099997</v>
+        <v>1094198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1207755</v>
+        <v>1202300</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3948192376164926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3768358479650121</v>
+        <v>0.3748491712823926</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4137514266433967</v>
+        <v>0.4118826337498727</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>477790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>443125</v>
+        <v>433636</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>518654</v>
+        <v>513960</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2516950499294701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2334340931848377</v>
+        <v>0.2284354436877689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.273221779071332</v>
+        <v>0.2707493280001431</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -1913,19 +1913,19 @@
         <v>246142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219363</v>
+        <v>218436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272109</v>
+        <v>273150</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2411390500482498</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2149039032030391</v>
+        <v>0.2139961931074312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2665783240819459</v>
+        <v>0.2675982408746951</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>695</v>
@@ -1934,19 +1934,19 @@
         <v>723932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>677782</v>
+        <v>679302</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>775121</v>
+        <v>775920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2480037592819399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2321938209437642</v>
+        <v>0.2327144373632501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.265540090359111</v>
+        <v>0.2658139798488524</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>442407</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>402259</v>
+        <v>405138</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>476787</v>
+        <v>479310</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2330557997410331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2119063106903297</v>
+        <v>0.2134230058142935</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2511667468718968</v>
+        <v>0.2524958672970748</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>152</v>
@@ -1984,19 +1984,19 @@
         <v>156178</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>132874</v>
+        <v>135293</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>179110</v>
+        <v>181468</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1530037882401575</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1301732041259401</v>
+        <v>0.1325430757277471</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1754691941123021</v>
+        <v>0.1777791477818428</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>578</v>
@@ -2005,19 +2005,19 @@
         <v>598585</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>558458</v>
+        <v>555452</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>648855</v>
+        <v>643825</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.20506269205875</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1913158823522236</v>
+        <v>0.1902861171866291</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2222840207419148</v>
+        <v>0.2205610705419053</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>338655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>307134</v>
+        <v>305679</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>373640</v>
+        <v>373738</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1784001724664808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1617953510107068</v>
+        <v>0.16102885710637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1968299646841961</v>
+        <v>0.1968816189007553</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -2055,19 +2055,19 @@
         <v>105372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86318</v>
+        <v>83803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126806</v>
+        <v>126722</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1032303804991068</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08456338398393218</v>
+        <v>0.08210015323435495</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1242281473265921</v>
+        <v>0.1241462677727238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>414</v>
@@ -2076,19 +2076,19 @@
         <v>444027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>401989</v>
+        <v>405064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484176</v>
+        <v>483545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1521143110428175</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1377130651456754</v>
+        <v>0.1387663606754643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1658685034467978</v>
+        <v>0.165652264858317</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>32176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23143</v>
+        <v>22487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43158</v>
+        <v>42955</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1758065593276682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1264518648103772</v>
+        <v>0.1228690450524421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2358150695238564</v>
+        <v>0.2347015344767333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -2440,19 +2440,19 @@
         <v>42802</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32528</v>
+        <v>31919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54423</v>
+        <v>55243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3121046536087998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2371893143710583</v>
+        <v>0.2327498051831232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3968465503460459</v>
+        <v>0.4028250082107379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -2461,19 +2461,19 @@
         <v>74978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60781</v>
+        <v>60643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92656</v>
+        <v>90717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2341898006817669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1898460189107967</v>
+        <v>0.1894158001129875</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2894055591588036</v>
+        <v>0.2833505579439998</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>56098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43681</v>
+        <v>44016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69109</v>
+        <v>70064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3065168300855662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2386677870907427</v>
+        <v>0.2405033615121021</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3776074674379957</v>
+        <v>0.3828275512192271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -2511,19 +2511,19 @@
         <v>54902</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42783</v>
+        <v>44146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66855</v>
+        <v>67592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4003377748296345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3119673322912233</v>
+        <v>0.3219056073717665</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4874966816832678</v>
+        <v>0.4928688104113919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -2532,19 +2532,19 @@
         <v>111000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94281</v>
+        <v>95110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127105</v>
+        <v>129348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3467049991861871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2944812793371985</v>
+        <v>0.2970722302018433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3970079528975369</v>
+        <v>0.4040137975765053</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>61065</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48724</v>
+        <v>48119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74556</v>
+        <v>73034</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3336553294253419</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2662278576907133</v>
+        <v>0.2629199304497129</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4073696758791252</v>
+        <v>0.3990531731243274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2582,19 +2582,19 @@
         <v>21741</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14487</v>
+        <v>13441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32579</v>
+        <v>31907</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1585310946868156</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.105637602740868</v>
+        <v>0.09801265139205786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.23756329344748</v>
+        <v>0.2326607042370263</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -2603,19 +2603,19 @@
         <v>82806</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67381</v>
+        <v>67213</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>100521</v>
+        <v>98750</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2586409242891828</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2104629252508844</v>
+        <v>0.2099362449863532</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3139740028272592</v>
+        <v>0.3084423315814737</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>33679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24138</v>
+        <v>23380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44533</v>
+        <v>46721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1840212811614237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1318871686822861</v>
+        <v>0.1277492095314366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2433259241295845</v>
+        <v>0.2552811054079566</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2653,19 +2653,19 @@
         <v>17695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10417</v>
+        <v>10482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28143</v>
+        <v>27653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1290264768747501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07595658782307722</v>
+        <v>0.07643469180770177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2052135202683864</v>
+        <v>0.2016442606606423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -2674,19 +2674,19 @@
         <v>51374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37957</v>
+        <v>39239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65837</v>
+        <v>66609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1604642758428631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.118558480204338</v>
+        <v>0.1225611234907772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2056379053855424</v>
+        <v>0.208050902780168</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>249797</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>217987</v>
+        <v>221117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>276980</v>
+        <v>278969</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2748690039850222</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2398659617097222</v>
+        <v>0.2433107723651003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3047805365851908</v>
+        <v>0.3069690298853869</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>184</v>
@@ -2799,19 +2799,19 @@
         <v>193846</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>169930</v>
+        <v>169462</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>216847</v>
+        <v>214595</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3397011683248003</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2977900135593559</v>
+        <v>0.2969693198432973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3800079965059744</v>
+        <v>0.3760610132854028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>411</v>
@@ -2820,19 +2820,19 @@
         <v>443643</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>406180</v>
+        <v>405367</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>477727</v>
+        <v>478280</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2998758239297571</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2745527935289994</v>
+        <v>0.2740033523227349</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3229143369141969</v>
+        <v>0.3232880432950652</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>318666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>290346</v>
+        <v>288999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>348363</v>
+        <v>350792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3506500532985837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3194877208769406</v>
+        <v>0.3180056147913631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3833281239877787</v>
+        <v>0.386000195967021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -2870,19 +2870,19 @@
         <v>197244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173961</v>
+        <v>175615</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220457</v>
+        <v>218723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3456549865237707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.304854054449215</v>
+        <v>0.3077523834200397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3863346428057914</v>
+        <v>0.3832951954401724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>492</v>
@@ -2891,19 +2891,19 @@
         <v>515910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>477197</v>
+        <v>478719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>554753</v>
+        <v>554826</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3487233748246856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3225556167619242</v>
+        <v>0.3235846054872543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3749792515313537</v>
+        <v>0.3750284103491585</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>227870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200271</v>
+        <v>203088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255830</v>
+        <v>255814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2507408909821688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2203722364779374</v>
+        <v>0.2234717397808904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2815078964591358</v>
+        <v>0.2814903345970003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -2941,19 +2941,19 @@
         <v>123858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104992</v>
+        <v>104854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145427</v>
+        <v>143873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.217052409803602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.183990135348387</v>
+        <v>0.1837494756909119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2548501955535635</v>
+        <v>0.2521262288589014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>334</v>
@@ -2962,19 +2962,19 @@
         <v>351728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>319063</v>
+        <v>316914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>386600</v>
+        <v>386124</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2377466960231841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2156670562409182</v>
+        <v>0.2142147148247406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2613180777931028</v>
+        <v>0.2609963979265081</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>112453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91456</v>
+        <v>93025</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133773</v>
+        <v>133875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1237400517342253</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1006349676784844</v>
+        <v>0.1023613399496413</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1471991824068385</v>
+        <v>0.1473115479403189</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -3012,19 +3012,19 @@
         <v>55689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42973</v>
+        <v>41880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72114</v>
+        <v>71528</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09759143534782695</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07530676316644586</v>
+        <v>0.07339231319730123</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1263736109549568</v>
+        <v>0.1253471164344507</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>156</v>
@@ -3033,19 +3033,19 @@
         <v>168143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>145514</v>
+        <v>146440</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>196819</v>
+        <v>196402</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1136541052223732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09835855468117986</v>
+        <v>0.09898424652099344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.133037368552856</v>
+        <v>0.1327556837786701</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>166301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146888</v>
+        <v>146385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186220</v>
+        <v>183266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5258412389554242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4644578891017824</v>
+        <v>0.4628676199533299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5888260451246972</v>
+        <v>0.5794831949576603</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -3158,19 +3158,19 @@
         <v>109531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93568</v>
+        <v>95339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125643</v>
+        <v>127145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4698929009991691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.401412888693466</v>
+        <v>0.4090114423585315</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5390177400797632</v>
+        <v>0.5454611829823582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>247</v>
@@ -3179,19 +3179,19 @@
         <v>275832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>251163</v>
+        <v>250045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>301211</v>
+        <v>300861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.502101758838026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4571974132165877</v>
+        <v>0.4551627582155862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5483005592409135</v>
+        <v>0.5476628299542723</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>84017</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>68762</v>
+        <v>69239</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>102810</v>
+        <v>102630</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2656614403401306</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2174250905516693</v>
+        <v>0.2189323105509432</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3250843764869907</v>
+        <v>0.3245131466151786</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -3229,19 +3229,19 @@
         <v>84443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>68649</v>
+        <v>69668</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>99252</v>
+        <v>100896</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3622645854177612</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2945063273955281</v>
+        <v>0.2988795841348345</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4257966497370316</v>
+        <v>0.4328479622840364</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>155</v>
@@ -3250,19 +3250,19 @@
         <v>168460</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>145378</v>
+        <v>145986</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>192227</v>
+        <v>191800</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3066511913429512</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2646344694194313</v>
+        <v>0.265741789732053</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3499138481911394</v>
+        <v>0.3491366263974717</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>52461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39129</v>
+        <v>37670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68768</v>
+        <v>65980</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1658821809590904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.123726276785038</v>
+        <v>0.119112559836628</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2174434748117446</v>
+        <v>0.2086275392793031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -3300,19 +3300,19 @@
         <v>25773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17315</v>
+        <v>16823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38224</v>
+        <v>38781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1105693894050466</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07428324466757745</v>
+        <v>0.07217052973775397</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1639838964290468</v>
+        <v>0.1663713143665343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -3321,19 +3321,19 @@
         <v>78235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59267</v>
+        <v>59896</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94980</v>
+        <v>98092</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.142412369999528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1078845512893871</v>
+        <v>0.109029229545156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1728933484234321</v>
+        <v>0.1785582269517076</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>13477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7724</v>
+        <v>7439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22512</v>
+        <v>22540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0426151397453548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02442166576017259</v>
+        <v>0.0235204947162495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07118388952055039</v>
+        <v>0.07127145674928283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -3371,19 +3371,19 @@
         <v>13350</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7464</v>
+        <v>7754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21566</v>
+        <v>21604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05727312417802304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0320221733381387</v>
+        <v>0.03326435887399533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09251911942269807</v>
+        <v>0.09268064821632359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -3392,19 +3392,19 @@
         <v>26828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17615</v>
+        <v>17773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37780</v>
+        <v>37827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04883467981949487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03206461715587795</v>
+        <v>0.03235248897219695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06877200663903252</v>
+        <v>0.06885717123187204</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>448274</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>411461</v>
+        <v>412660</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>488680</v>
+        <v>487761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3183625313049017</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2922183812537826</v>
+        <v>0.2930699292715258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3470590367961648</v>
+        <v>0.3464061513889498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>321</v>
@@ -3517,19 +3517,19 @@
         <v>346179</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>317999</v>
+        <v>313007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>378937</v>
+        <v>375606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3679331209591469</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3379826445211292</v>
+        <v>0.3326770233579443</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4027502030598974</v>
+        <v>0.3992096164569519</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>729</v>
@@ -3538,19 +3538,19 @@
         <v>794453</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>740211</v>
+        <v>746984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>843753</v>
+        <v>846352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3382181985166097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3151263994888776</v>
+        <v>0.3180094483306271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3592066034966682</v>
+        <v>0.3603130147542998</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>458781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>418233</v>
+        <v>426542</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>493139</v>
+        <v>497468</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3258248224386134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2970275804137509</v>
+        <v>0.3029289569935318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3502255179123688</v>
+        <v>0.3532997051540351</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>312</v>
@@ -3588,19 +3588,19 @@
         <v>336589</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>307676</v>
+        <v>305648</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>362691</v>
+        <v>368226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3577403561346305</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3270113274437761</v>
+        <v>0.3248549911105715</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3854831694617699</v>
+        <v>0.39136572786241</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>752</v>
@@ -3609,19 +3609,19 @@
         <v>795370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>751331</v>
+        <v>746336</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>846522</v>
+        <v>843972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3386086973203175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3198602718098975</v>
+        <v>0.3177336175503792</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3603852678684905</v>
+        <v>0.3593000433746827</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>341396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>310627</v>
+        <v>310133</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>377699</v>
+        <v>374749</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2424583478103451</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2206063178739813</v>
+        <v>0.2202555013655102</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2682407544597279</v>
+        <v>0.2661455767767087</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>154</v>
@@ -3659,19 +3659,19 @@
         <v>171373</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>147382</v>
+        <v>145509</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>196496</v>
+        <v>196114</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1821418555677455</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1566438886730904</v>
+        <v>0.1546529651634382</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2088437118244186</v>
+        <v>0.2084376939825999</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>479</v>
@@ -3680,19 +3680,19 @@
         <v>512769</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>473583</v>
+        <v>471963</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>557412</v>
+        <v>553068</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2182983730006838</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.201615969812429</v>
+        <v>0.2009263999976202</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2373039594394929</v>
+        <v>0.2354546277552267</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>159610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134456</v>
+        <v>135445</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186413</v>
+        <v>186375</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1133542984461397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09549037471391479</v>
+        <v>0.09619245776647478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1323901876497497</v>
+        <v>0.1323631121959079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -3730,19 +3730,19 @@
         <v>86734</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69984</v>
+        <v>70141</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106203</v>
+        <v>106129</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09218466733847719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07438186447821502</v>
+        <v>0.07454847464343568</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1128768108928072</v>
+        <v>0.1127984354264698</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>230</v>
@@ -3751,19 +3751,19 @@
         <v>246344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>218719</v>
+        <v>217605</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277645</v>
+        <v>279466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1048747311623891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09311407673071923</v>
+        <v>0.09264001230217084</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1182003128657642</v>
+        <v>0.1189756612845215</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>19049</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12322</v>
+        <v>11845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30632</v>
+        <v>28986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1388549959957812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08982318223084806</v>
+        <v>0.08634288463498481</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2232941147089262</v>
+        <v>0.2112935308083201</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -4115,19 +4115,19 @@
         <v>18193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11590</v>
+        <v>11802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26080</v>
+        <v>26013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2631755490247376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1676653216703568</v>
+        <v>0.1707214582854188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3772769204554307</v>
+        <v>0.3762994024787793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -4136,19 +4136,19 @@
         <v>37242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26467</v>
+        <v>26242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49756</v>
+        <v>49542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1805105941784939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1282849910795017</v>
+        <v>0.1271943245726289</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2411675404968839</v>
+        <v>0.2401335030373829</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>38905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28098</v>
+        <v>29093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49858</v>
+        <v>50389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2835997750335476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2048224110551065</v>
+        <v>0.2120734372815889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3634384686458557</v>
+        <v>0.3673129697470487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -4186,19 +4186,19 @@
         <v>17053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10744</v>
+        <v>10917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25193</v>
+        <v>24762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.246686101229827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1554187206837635</v>
+        <v>0.1579293461485115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3644335924137072</v>
+        <v>0.3582001491835651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -4207,19 +4207,19 @@
         <v>55958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44237</v>
+        <v>43754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69986</v>
+        <v>69190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.271231255702256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2144189499244396</v>
+        <v>0.2120745373102687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3392256409417989</v>
+        <v>0.3353638690650216</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>41636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30506</v>
+        <v>32364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52888</v>
+        <v>53839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3035067041411532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2223701418884541</v>
+        <v>0.2359191130339617</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3855245561457431</v>
+        <v>0.3924579471072093</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -4257,19 +4257,19 @@
         <v>20320</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13325</v>
+        <v>13756</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28363</v>
+        <v>29089</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2939450171923494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1927540730698727</v>
+        <v>0.1989977728595559</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4103025269715332</v>
+        <v>0.4208044790060295</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -4278,19 +4278,19 @@
         <v>61956</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49005</v>
+        <v>49228</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75587</v>
+        <v>73905</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3003029073450154</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2375305122706897</v>
+        <v>0.2386080821305168</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3663730636153159</v>
+        <v>0.358217230781667</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>37594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27135</v>
+        <v>27877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49842</v>
+        <v>48490</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.274038524829518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1978027854542498</v>
+        <v>0.2032118150684745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3633207608101562</v>
+        <v>0.3534688601993677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4328,19 +4328,19 @@
         <v>13562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7339</v>
+        <v>8272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20538</v>
+        <v>21018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1961933325530859</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1061723887792563</v>
+        <v>0.119659750421746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2971071584807445</v>
+        <v>0.3040413065357336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -4349,19 +4349,19 @@
         <v>51156</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39770</v>
+        <v>39101</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66059</v>
+        <v>65085</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2479552427742348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1927676216481337</v>
+        <v>0.1895250483814901</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3201901942280037</v>
+        <v>0.315470529958719</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>246646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>219552</v>
+        <v>220489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>275933</v>
+        <v>274209</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2682358738243575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2387701327003891</v>
+        <v>0.2397890794146081</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.300085955720017</v>
+        <v>0.2982108731499749</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>211</v>
@@ -4474,19 +4474,19 @@
         <v>215034</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>193160</v>
+        <v>192213</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>241601</v>
+        <v>240456</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3315392166386306</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2978136399128247</v>
+        <v>0.2963542962726892</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3725000179226427</v>
+        <v>0.3707343908721223</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>443</v>
@@ -4495,19 +4495,19 @@
         <v>461680</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>429425</v>
+        <v>427429</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>496253</v>
+        <v>498817</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2944191238493005</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2738497005414451</v>
+        <v>0.2725765721525216</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3164669148299597</v>
+        <v>0.3181019617001296</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>300153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>270740</v>
+        <v>269454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329085</v>
+        <v>326585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.326426462760779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2944382226294693</v>
+        <v>0.2930400955627965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3578901923331355</v>
+        <v>0.3551718052452484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -4545,19 +4545,19 @@
         <v>213248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189756</v>
+        <v>190081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>238695</v>
+        <v>238565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3287858559585144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2925653078206057</v>
+        <v>0.2930670294653813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.368019492645462</v>
+        <v>0.3678194895816048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>491</v>
@@ -4566,19 +4566,19 @@
         <v>513401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>476713</v>
+        <v>476975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>552513</v>
+        <v>550065</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3274023445903485</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3040056083967198</v>
+        <v>0.3041730322371758</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3523445645233559</v>
+        <v>0.3507832876307964</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>239928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212133</v>
+        <v>211977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267667</v>
+        <v>268792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2609296473869763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.230701827845164</v>
+        <v>0.2305314242409944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2910959687345476</v>
+        <v>0.2923202423739832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -4616,19 +4616,19 @@
         <v>144893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123830</v>
+        <v>125976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166102</v>
+        <v>167230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2233951457914747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1909203800409154</v>
+        <v>0.1942303605005195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.256096387446497</v>
+        <v>0.2578344757178265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>367</v>
@@ -4637,19 +4637,19 @@
         <v>384820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>349189</v>
+        <v>350386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>417240</v>
+        <v>419509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.245404792045292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2226822168573545</v>
+        <v>0.2234454864811357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2660789456833071</v>
+        <v>0.2675263783418356</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>132785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111578</v>
+        <v>111518</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>153648</v>
+        <v>155357</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1444080160278871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1213451839532186</v>
+        <v>0.1212799320785213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1670973416851439</v>
+        <v>0.1689562475576071</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -4687,19 +4687,19 @@
         <v>75418</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57988</v>
+        <v>59605</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>92690</v>
+        <v>93380</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1162797816113804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0894050736630292</v>
+        <v>0.09189942985779137</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1429100417516247</v>
+        <v>0.1439733215871263</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>193</v>
@@ -4708,19 +4708,19 @@
         <v>208203</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180640</v>
+        <v>184286</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>235657</v>
+        <v>235585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.132773739515059</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1151964018086942</v>
+        <v>0.1175216709597673</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1502811154462463</v>
+        <v>0.1502354681160863</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>172542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154631</v>
+        <v>155341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193191</v>
+        <v>192556</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4990653863284847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4472582323624867</v>
+        <v>0.4493129789705811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5587910996667296</v>
+        <v>0.5569548013282426</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>150</v>
@@ -4833,19 +4833,19 @@
         <v>155902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138371</v>
+        <v>137665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174098</v>
+        <v>173834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5054330432225005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4485955921238349</v>
+        <v>0.4463083678574755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5644221167928755</v>
+        <v>0.5635658327490382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -4854,19 +4854,19 @@
         <v>328444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301950</v>
+        <v>300184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353611</v>
+        <v>354797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.502067793834067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.461567794315287</v>
+        <v>0.4588688573497787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5405377698044234</v>
+        <v>0.5423518540586565</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>116790</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97765</v>
+        <v>97348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>135489</v>
+        <v>134594</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3378073623919279</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.282778321233464</v>
+        <v>0.2815714846650376</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3918923928892097</v>
+        <v>0.3893033427020962</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>85</v>
@@ -4904,19 +4904,19 @@
         <v>85715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>70748</v>
+        <v>70608</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>101564</v>
+        <v>103251</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2778879553168151</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2293635296497297</v>
+        <v>0.228911303275846</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3292684066585668</v>
+        <v>0.334739149432508</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>190</v>
@@ -4925,19 +4925,19 @@
         <v>202506</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>178839</v>
+        <v>178314</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>225197</v>
+        <v>225903</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3095548229529038</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2733782584207494</v>
+        <v>0.2725756540122014</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3442419355276947</v>
+        <v>0.3453211391592229</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>39476</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28309</v>
+        <v>28525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52182</v>
+        <v>53306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1141817458132532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08188163504066087</v>
+        <v>0.08250603569146583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1509318712505771</v>
+        <v>0.1541831702662369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -4975,19 +4975,19 @@
         <v>45330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33458</v>
+        <v>33953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58592</v>
+        <v>59199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1469577285141209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1084691187399221</v>
+        <v>0.1100736814139241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1899546619065888</v>
+        <v>0.1919219901571652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -4996,19 +4996,19 @@
         <v>84806</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69690</v>
+        <v>68728</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104387</v>
+        <v>102279</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1296359164920156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1065291746052962</v>
+        <v>0.1050586978828014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1595691652844421</v>
+        <v>0.1563467055128318</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>16922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9432</v>
+        <v>9830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26274</v>
+        <v>26758</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04894550546633412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02728057393837456</v>
+        <v>0.02843261291954519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07599478720684047</v>
+        <v>0.07739596493727102</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -5046,19 +5046,19 @@
         <v>21506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13846</v>
+        <v>13401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33016</v>
+        <v>31994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06972127294656351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04488692949346444</v>
+        <v>0.04344557581956354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1070378499970003</v>
+        <v>0.1037244017174765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -5067,19 +5067,19 @@
         <v>38428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27139</v>
+        <v>26937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50917</v>
+        <v>51495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05874146672101366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04148461439728954</v>
+        <v>0.04117674621595568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07783305781813508</v>
+        <v>0.07871623269359608</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>438237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>402339</v>
+        <v>404545</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>476344</v>
+        <v>476632</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3124846473137938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2868879459184137</v>
+        <v>0.288460654743158</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3396568642592953</v>
+        <v>0.3398620375365427</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>379</v>
@@ -5192,19 +5192,19 @@
         <v>389129</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>357217</v>
+        <v>358487</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>420398</v>
+        <v>421189</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3792038704944409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.348105828728194</v>
+        <v>0.3493434190255187</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4096750560525538</v>
+        <v>0.4104457182667838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>786</v>
@@ -5213,19 +5213,19 @@
         <v>827366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>782581</v>
+        <v>780940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>877574</v>
+        <v>874987</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3406760045242659</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3222354624337255</v>
+        <v>0.3215594096619356</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3613496424697306</v>
+        <v>0.3602844111114664</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>455849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>419741</v>
+        <v>418950</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>495134</v>
+        <v>492867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3250428429716991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2992960150908915</v>
+        <v>0.2987322474235657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3530550434638362</v>
+        <v>0.3514386908510894</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>313</v>
@@ -5263,19 +5263,19 @@
         <v>316016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>287796</v>
+        <v>287658</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347549</v>
+        <v>343097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3079560265051017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2804555715945709</v>
+        <v>0.2803209992002488</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3386846751107627</v>
+        <v>0.3343460729769658</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>735</v>
@@ -5284,19 +5284,19 @@
         <v>771865</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>726997</v>
+        <v>723321</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>818092</v>
+        <v>818860</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3178230264984859</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2993482009043721</v>
+        <v>0.2978344866775632</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3368573202099849</v>
+        <v>0.3371733689070356</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>321041</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>288522</v>
+        <v>292276</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>351475</v>
+        <v>354730</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2289178197246488</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2057305134617186</v>
+        <v>0.2084073991468216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2506188133741317</v>
+        <v>0.2529402446717808</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>206</v>
@@ -5334,19 +5334,19 @@
         <v>210542</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>186954</v>
+        <v>184524</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>236065</v>
+        <v>234125</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.205171756697125</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1821851705289278</v>
+        <v>0.1798175775375288</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2300435543244765</v>
+        <v>0.2281532366571323</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>510</v>
@@ -5355,19 +5355,19 @@
         <v>531582</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>491207</v>
+        <v>494107</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>572951</v>
+        <v>577596</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2188842235099751</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2022591891984581</v>
+        <v>0.203453350310528</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2359181290027764</v>
+        <v>0.2378307513984327</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>187301</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162649</v>
+        <v>163424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>215660</v>
+        <v>214885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1335546899898584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1159769622612362</v>
+        <v>0.116529432900551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1537765954803344</v>
+        <v>0.1532235809480902</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>104</v>
@@ -5405,19 +5405,19 @@
         <v>110486</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>92324</v>
+        <v>91517</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>132092</v>
+        <v>130102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1076683463033324</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08996895543832092</v>
+        <v>0.08918238298685197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1287226673703986</v>
+        <v>0.1267834972074968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>275</v>
@@ -5426,19 +5426,19 @@
         <v>297787</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>267091</v>
+        <v>267115</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332120</v>
+        <v>331911</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1226167454672731</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1099773431453251</v>
+        <v>0.1099872571256229</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1367535847012208</v>
+        <v>0.1366675823883018</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>12911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7017</v>
+        <v>6922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23177</v>
+        <v>21741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1491208007325772</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08104631303455313</v>
+        <v>0.0799477616164493</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2676835375035354</v>
+        <v>0.251094803998965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5790,19 +5790,19 @@
         <v>6661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3027</v>
+        <v>3323</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11651</v>
+        <v>11481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1510162563691407</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06862047733071121</v>
+        <v>0.07532703876003538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2641462402866891</v>
+        <v>0.2602761717489349</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -5811,19 +5811,19 @@
         <v>19573</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12614</v>
+        <v>12340</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28928</v>
+        <v>30254</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.149760522254757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09651985311029976</v>
+        <v>0.09441684745455646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2213411015900521</v>
+        <v>0.2314922786047466</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>16138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9594</v>
+        <v>9144</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26070</v>
+        <v>25497</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1863813390939341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1108061158961443</v>
+        <v>0.1056088536306364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3010892255196793</v>
+        <v>0.2944791090349867</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5861,19 +5861,19 @@
         <v>16357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10704</v>
+        <v>11065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21876</v>
+        <v>21762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3708248308742347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2426786154446201</v>
+        <v>0.2508488229982594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4959571906440973</v>
+        <v>0.4933633574000066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -5882,19 +5882,19 @@
         <v>32494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23925</v>
+        <v>23700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43046</v>
+        <v>43247</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2486315279360055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1830652436385972</v>
+        <v>0.181342805627476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3293658545322101</v>
+        <v>0.3309086638240817</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>28532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19459</v>
+        <v>19091</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38859</v>
+        <v>39286</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3295308728987753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2247459033004158</v>
+        <v>0.2204862632259899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4487979206793189</v>
+        <v>0.4537325046324509</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -5932,19 +5932,19 @@
         <v>13002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8548</v>
+        <v>8539</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18698</v>
+        <v>18793</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2947630215344915</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1937902079581232</v>
+        <v>0.1935978496183343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4239042334335898</v>
+        <v>0.4260530918955548</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -5953,19 +5953,19 @@
         <v>41534</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30813</v>
+        <v>30333</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52193</v>
+        <v>52559</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3177966268585965</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2357630484623976</v>
+        <v>0.2320964295936875</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3993593708469736</v>
+        <v>0.4021575052175998</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>29003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19866</v>
+        <v>19100</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41434</v>
+        <v>40656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3349669872747135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2294472411781931</v>
+        <v>0.2205946460760967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4785429428514286</v>
+        <v>0.4695591910605196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -6003,19 +6003,19 @@
         <v>8089</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4102</v>
+        <v>4247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14598</v>
+        <v>14935</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1833958912221328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09299052377812729</v>
+        <v>0.09628926034183354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3309498087383509</v>
+        <v>0.3386030211107695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -6024,19 +6024,19 @@
         <v>37092</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25243</v>
+        <v>26464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49875</v>
+        <v>51406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.283811322950641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1931440554351632</v>
+        <v>0.2024919776503058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3816168448486295</v>
+        <v>0.3933326001822279</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>137288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>115725</v>
+        <v>117257</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163048</v>
+        <v>160660</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2221455241949234</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1872552086906799</v>
+        <v>0.1897329454117281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.263827887493277</v>
+        <v>0.2599640889568928</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>152</v>
@@ -6149,19 +6149,19 @@
         <v>121936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>105144</v>
+        <v>104840</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>139925</v>
+        <v>142029</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.271684545014131</v>
+        <v>0.2716845450141311</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2342686788535119</v>
+        <v>0.2335919272228404</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.311765564270548</v>
+        <v>0.3164523430127194</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>268</v>
@@ -6170,19 +6170,19 @@
         <v>259224</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>231863</v>
+        <v>232287</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>290752</v>
+        <v>287474</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2429867214000322</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2173390573807265</v>
+        <v>0.2177363576887455</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2725391409879303</v>
+        <v>0.2694665467029973</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>220379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195257</v>
+        <v>195874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>248443</v>
+        <v>245665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3565954146904318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3159457677010967</v>
+        <v>0.3169437970109577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4020057289071052</v>
+        <v>0.3975107099749709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -6220,19 +6220,19 @@
         <v>159558</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>140540</v>
+        <v>141394</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176782</v>
+        <v>177447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.355508818293883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3131359668973538</v>
+        <v>0.3150374270647044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3938844521503089</v>
+        <v>0.3953677456372235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>415</v>
@@ -6241,19 +6241,19 @@
         <v>379937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347278</v>
+        <v>349530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>412229</v>
+        <v>410802</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3561382807098173</v>
+        <v>0.3561382807098172</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3255244512872281</v>
+        <v>0.327635698760981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3864077813589815</v>
+        <v>0.3850696492869624</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>166262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>142302</v>
+        <v>140440</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>191094</v>
+        <v>193419</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2690285470669899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2302580412951602</v>
+        <v>0.2272454916614519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3092090619043306</v>
+        <v>0.312971910610894</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -6291,19 +6291,19 @@
         <v>111226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96418</v>
+        <v>96939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128684</v>
+        <v>129305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2478208952302913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2148274801397211</v>
+        <v>0.2159883934723199</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2867197129624259</v>
+        <v>0.28810252340189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>289</v>
@@ -6312,19 +6312,19 @@
         <v>277488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>252738</v>
+        <v>248524</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>307963</v>
+        <v>306660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2601064317954956</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.236907057962466</v>
+        <v>0.232956608242331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2886728696745963</v>
+        <v>0.2874506598324262</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>94080</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73695</v>
+        <v>74109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>120793</v>
+        <v>117929</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1522305140476549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1192461733372227</v>
+        <v>0.1199158251808768</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.19545518876767</v>
+        <v>0.190820928985977</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -6362,19 +6362,19 @@
         <v>56096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44803</v>
+        <v>44292</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70659</v>
+        <v>68945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1249857414616947</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09982559356235102</v>
+        <v>0.09868523201139402</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1574332740375023</v>
+        <v>0.153615980674344</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>137</v>
@@ -6383,19 +6383,19 @@
         <v>150175</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125700</v>
+        <v>126118</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>176770</v>
+        <v>177845</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.140768566094655</v>
+        <v>0.1407685660946549</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1178263925202894</v>
+        <v>0.1182177996572191</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1656974793527057</v>
+        <v>0.1667046370364813</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>151867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135386</v>
+        <v>133668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168184</v>
+        <v>168515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5769265953833347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.51431852044155</v>
+        <v>0.5077908473468217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6389132765184513</v>
+        <v>0.6401725090873092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -6508,19 +6508,19 @@
         <v>102357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88933</v>
+        <v>89424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116397</v>
+        <v>115016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4686698068374592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4072075093470702</v>
+        <v>0.4094533416724298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5329587141885799</v>
+        <v>0.5266353131844289</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>261</v>
@@ -6529,19 +6529,19 @@
         <v>254223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>231033</v>
+        <v>231182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>280214</v>
+        <v>276264</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5278371487272607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4796876711841709</v>
+        <v>0.4799964701600578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5818003560742209</v>
+        <v>0.5735995591864081</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>73477</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>59449</v>
+        <v>58651</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>88923</v>
+        <v>89257</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2791314568961483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.225842654644198</v>
+        <v>0.2228091963634584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3378084865506446</v>
+        <v>0.3390782631802376</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>108</v>
@@ -6579,19 +6579,19 @@
         <v>73313</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60973</v>
+        <v>62235</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85450</v>
+        <v>86418</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3356872769949235</v>
+        <v>0.3356872769949236</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.27918114684616</v>
+        <v>0.2849636606219813</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3912578603324721</v>
+        <v>0.3956890799601235</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>181</v>
@@ -6600,19 +6600,19 @@
         <v>146790</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>126644</v>
+        <v>128142</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>167151</v>
+        <v>165960</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.304776905566121</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2629467716898805</v>
+        <v>0.2660582000723447</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3470513409499343</v>
+        <v>0.3445782703708239</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>20769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12412</v>
+        <v>12544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32088</v>
+        <v>32185</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07889947449294357</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0471523306754849</v>
+        <v>0.04765156344302953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1218998624701032</v>
+        <v>0.1222695183111403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -6650,19 +6650,19 @@
         <v>28015</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20299</v>
+        <v>19853</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39156</v>
+        <v>38803</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1282752210770696</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09294296193852744</v>
+        <v>0.09090180281448937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1792886753487963</v>
+        <v>0.1776731862944543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -6671,19 +6671,19 @@
         <v>48784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36054</v>
+        <v>36121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64793</v>
+        <v>63125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1012890919072653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0748578033774841</v>
+        <v>0.07499709993065966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1345287445524086</v>
+        <v>0.1310646300631102</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>17121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8362</v>
+        <v>8498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30928</v>
+        <v>31694</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06504247322757341</v>
+        <v>0.06504247322757339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03176827451061609</v>
+        <v>0.03228147099458381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1174941054365678</v>
+        <v>0.1204042224638289</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -6721,19 +6721,19 @@
         <v>14713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8498</v>
+        <v>8612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23977</v>
+        <v>22997</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06736769509054767</v>
+        <v>0.06736769509054766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03890975922388184</v>
+        <v>0.03943188113350791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1097875683584991</v>
+        <v>0.1052967019573646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -6742,19 +6742,19 @@
         <v>31834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21583</v>
+        <v>21444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48727</v>
+        <v>49666</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06609685379935291</v>
+        <v>0.0660968537993529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04481148153088963</v>
+        <v>0.04452336558343355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1011712406008997</v>
+        <v>0.1031209704350024</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>302066</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>269902</v>
+        <v>272194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>332908</v>
+        <v>334185</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3121076407295683</v>
+        <v>0.3121076407295682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2788738851857462</v>
+        <v>0.2812425387789715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3439745892974178</v>
+        <v>0.3452941368518516</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>297</v>
@@ -6867,19 +6867,19 @@
         <v>230954</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>209589</v>
+        <v>208290</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>254355</v>
+        <v>253934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3246823521434246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2946466134640044</v>
+        <v>0.2928202497077009</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3575800541110139</v>
+        <v>0.3569884941951787</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>549</v>
@@ -6888,19 +6888,19 @@
         <v>533020</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>491393</v>
+        <v>493636</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>571979</v>
+        <v>571774</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3174345524356686</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2926438266457664</v>
+        <v>0.2939795531627212</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3406361341528706</v>
+        <v>0.3405139169795758</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>309994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280101</v>
+        <v>278903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>342753</v>
+        <v>343147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3202986970876835</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2894122045480855</v>
+        <v>0.288174771814168</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3541467681148334</v>
+        <v>0.3545543039543174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>351</v>
@@ -6938,19 +6938,19 @@
         <v>249228</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224162</v>
+        <v>228995</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271994</v>
+        <v>272833</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3503727505596075</v>
+        <v>0.3503727505596074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3151336991209522</v>
+        <v>0.3219279724253913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3823775860841511</v>
+        <v>0.3835568672222386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>635</v>
@@ -6959,19 +6959,19 @@
         <v>559222</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521192</v>
+        <v>522866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>601152</v>
+        <v>600849</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3330386974119018</v>
+        <v>0.3330386974119017</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3103901134956402</v>
+        <v>0.3113873177882507</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.358009836597766</v>
+        <v>0.3578293384274754</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>215563</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>186680</v>
+        <v>185940</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242949</v>
+        <v>248700</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2227289915926929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.192885566928536</v>
+        <v>0.1921213271520818</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2510247639487315</v>
+        <v>0.2569677814012936</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>198</v>
@@ -7009,19 +7009,19 @@
         <v>152243</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>134040</v>
+        <v>132135</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>172933</v>
+        <v>171010</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2140276261859682</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1884372566480478</v>
+        <v>0.1857596152657989</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2431149405227258</v>
+        <v>0.2404105237547457</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>381</v>
@@ -7030,19 +7030,19 @@
         <v>367806</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>333602</v>
+        <v>336398</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>403362</v>
+        <v>407374</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2190429105592099</v>
+        <v>0.2190429105592098</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1986729049021166</v>
+        <v>0.2003382576020915</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2402180729016111</v>
+        <v>0.2426072454227597</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>140204</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>115879</v>
+        <v>114839</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>171197</v>
+        <v>169458</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1448646705900552</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1197307094278688</v>
+        <v>0.1186564270318474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1768879395574855</v>
+        <v>0.1750911842016684</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -7080,19 +7080,19 @@
         <v>78898</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66019</v>
+        <v>64136</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95197</v>
+        <v>96832</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1109172711109999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09281165059008674</v>
+        <v>0.09016453204535964</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1338311671631693</v>
+        <v>0.1361289360035794</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>198</v>
@@ -7101,19 +7101,19 @@
         <v>219102</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191034</v>
+        <v>190333</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252258</v>
+        <v>250326</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1304838395932198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1137685271512719</v>
+        <v>0.1133509969479585</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1502294986689763</v>
+        <v>0.1490788006703549</v>
       </c>
     </row>
     <row r="23">
